--- a/output/Total_time_range_data/江苏省/泰州市_学习考察.xlsx
+++ b/output/Total_time_range_data/江苏省/泰州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,958 +436,1050 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>80</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>泰兴市赴盐城市亭湖区考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://zjswj.taizhou.gov.cn/xwzx/jcdt/art/2023/art_ef623bdf089a4a07b5e683c32a4e3a8f.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['近日，泰兴市民宗局副局长李江锋带领部分乡镇统战委员、社区书记、企业负责人，赴盐城市亭湖区考察学习民族团结进步创建工作。', '考察组一行先后参观了先锋街道健康路社区红石榴家园、五星街道红石榴家园、立铠精密科技（盐城）有限公司红石榴家园等，通过听取情况介绍、实地考察、交流咨询等方式，考察学习了亭湖区在加强少数民族管理、服务少数民族群众、推动各民族之间交往交流交融、打造全国民族团结进步创建示范单位、助推民族团结进步创建工作等方面的成功经验。', '考察组对亭湖区充分发挥各职能部门作用，积极联动各方资源开展民族团结进步创建工作印象深刻。通过此次学习活动，全面了解了亭湖区民族团结进步创建工作开展情况，为我市今后开展民族团结活动提供了可借鉴的思路和方法。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>80</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>海陵区政协侨台民宗界别考察学习宗教工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://zjswj.taizhou.gov.cn/xwzx/jcdt/art/2024/art_8b421bbd39bd407ea7a29b652b3ac8cb.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为切实做好宗教团体、宗教活动场所、宗教教职人员“三个五好”建设工作，积极探索“坚持我国宗教中国化方向”有效途径，近日，海陵区政协副主席刘金桂率侨台民宗界别政协委员，赴苏南、浙江等地开展专题考察学习活动。', '在苏南，考察组一行先后深入苏州寒山寺、无锡祥符禅寺、无锡基督教堂，实地考察了宗教中国化展示馆等成果展示平台建设情况，围绕宗教中国化展示场馆设计、内容谋划、平台使用等，认真听取了当地民宗部门、宗教团体、宗教活动场所的情况介绍。在浙江，考察组一行先后深入湖州法华寺、安吉灵峰寺，实地观摩了“六美”宗教活动场所创建暨“六好”宗教教职人员培育工作成效，详细了解了“六美”宗教活动场所建设的组织领导、氛围营造、推进落实等方面好的做法。', '刘金桂表示，委员们将深入学习借鉴经验做法，结合海陵实际，指导宗教界建成一批“五好”宗教活动场所，不断推动宗教中国化“海陵实践”走深走实。', '海陵区城西街道开展“我们的节日”——“党建引领促团结 浓情端午一家亲”端午节主题活动']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>80</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>滨海县司法局来泰州医药高新区高港区考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://sfj.taizhou.gov.cn/xwzx/gzdt/art/2024/art_ab68933d116c451095931e3c4e98ec98.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['4月22日，盐城市滨海县司法局党组成员、副局长李华，滨海县司法局党组成员、县委依法治县办副主任潘秋任一行到泰州医药高新区（高港区）考察学习公共法律服务工作。', '考察组参观了大泗司法所社区矫正自助终端、公共法律服务中心、一站式矛盾纠纷调处中心和司法所社区矫正宣告室、谈心谈话室，深入了解村居法律顾问服务全过程，并由工作人员介绍了在法律咨询、矛盾调解、法律援助等方面的创新做法。', '在区公共法律服务中心，考察组观摩了法律援助、公证办理、人民调解、法律咨询等服务窗口运行情况，听取了司法行政业务“一门通办”情况介绍。去年以来，泰州医药高新区（高港区）对公共法律服务中心提档升级，推进公共法律服务立体覆盖、精准问需。建成“区中心－工作中－村（社区）联络点”三级法律援助“1+6+12”维权网络，提供上门援助服务15次，实施点援制5次，利用MINI自助一体机办理远程、自助公证事项142件，获得全省“法援惠民生”成绩突出单位等多个奖项。', '在随后召开的座谈会上，双方围绕加强诉源治理有效化解社会矛盾、打造便捷高效普惠公共法律服务体系等工作进行深入交流。考察组对医药高新区（高港区）在公共法律服务等工作中的创新做法给予高度评价，希望今后进一步加强交流合作，推动两地工作的共同提升。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>80</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市农业开发区赴泰兴农产品加工园区考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/vFNAjWG8CUDklgeAHcmqeg</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['4月23日上午，市农业开发区党工委书记、管委会主任周银松率泰州市农业开发区相关部门负责人，赴泰兴农产品加工园区考察学习。', '考察组先后在园区展示展销中心，以及百汇农发、卤江南、菇本堂等重点企业参观学习，围绕项目建设、产业链打造、一二三产融合发展等方面与园区及相关企业负责人进行了现场交流。', '座谈会上，泰兴市农产品加工园区管委会主任王飞围绕加力项目招引、加速项目建设和下一步工作思路介绍了园区的发展情况。泰兴市人大常委会副主任、泰兴市农产品加工园区党工委书记王晓云对周银松书记一行的到来表示欢迎，并就新时期农业园区的发展建设分享了思考体会。', '周银松介绍了泰州市农业产业园区发展情况。他说，近年来泰州市农业开发区打造了以水稻、水禽、水产和花卉为主的“三水一花”特色产业，正以创成江苏省第一家以种业为主导产业的国家现代农业产业园和泰州市城北生态经济带建设为契机，大力培育农产品精深加工、智能农机装备制造和冷链物流三条主导产业链。', '周银松表示，泰兴市农产品加工园区作为泰州首家国家现代产业园，紧扣“农”字，深耕一二三产业融合发展，发展势头强劲，尤其在农产品精深加工产业的招引培育方面，有很多先进经验值得泰州市农业开发区学习，希望双方进一步加强合作、互相借鉴，实现共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>80</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>扬州市农业农村局一行到我市考察学习宜居宜业和美乡村建设和片区化统筹推进乡村振兴工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-05-16</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.xinghua.gov.cn/xwzx/bmdt/art/2024/art_71ad08daa3f64e3fbd81c6c0d21a80ca.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['扬州市农业农村局一行到我市考察学习宜居宜业和美乡村建设和片区化统筹推进乡村振兴工作', '5月15日，扬州市农业农村局一行到我市考察学习宜居宜业和美乡村建设和片区化统筹推进乡村振兴工作。', '考察团一行先后实地走访了沙沟镇水金村，了解“十八帮”传统捕鱼体验区、智慧渔业平台、沙沟镇渔文化展示馆建设情况；中国传统村落石梁村，了解集中连片整体提升古镇特色风貌有关情况，并充分肯定我市宜居宜业和美乡村建设工作取得的成效。', '下一步，市农业农村局将认真落实省委农办关于宜居宜业和美乡村建设的最新要求，完善动态长效管护，突出区域特色，坚持辐射带动，提升宜居宜业和美乡村建设整体成效。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>80</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>扬州市人大常委会来我区考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.tzhl.gov.cn/xwzx/hlyw/art/2024/art_98fdf795901d47ee9843369230a6e1ac.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['7月4日上午，扬州市人大常委会主任、党组书记孔令俊率队来到我区，考察学习我区在全过程人民民主实践中的先进经验，扬州市人大常委会副主任沙志芳参加考察。泰州市人大常委会主任、党组书记张余松，秘书长李卫国，海陵区人大常委会主任孔令明陪同考察。', '海陵人大主题公园位于城西街道九龙社区，占地面积38亩，是全省区级层面首个以人大元素为主题的特色公园，园内主要布展人民代表大会制度发展的光辉历程、习近平总书记关于坚持和完善人民代表大会制度重要思想、宪法及宪法宣誓制度、习近平总书记关于全过程人民民主重要论述、发展全过程人民民主的“海陵实践”以及代表风采、镇街人大之窗等七大板块，将人大元素、景观小品与优美环境融为一体，致力于打造宣传人民代表大会制度的重要窗口、展示全过程人民民主“海陵实践”的平台载体、各级人大代表学习培训的实践基地和居民群众休闲运动的幸福家园。', '孔令俊一行通过看展板、听讲解，详细了解我区全过程人民民主实践工作，并对我区发展和完善全过程人民民主的实践表示赞赏，认为我区有阵地、有平台、有亮点，在把握内涵、找准抓手、创新形式等方面的经验做法值得借鉴与学习，希望两地加强学习与交流，进一步推进发展和完善全过程人民民主工作机制建设，为助推地方经济社会高质量发展贡献人大智慧和力量。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>80</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>泰州市民宗局赴九江连云港考察学习宗教工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-04-02</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://zjswj.taizhou.gov.cn/xwzx/ywdt/art/2024/art_8e6fe870773e421688daabc5b6cea60c.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['为切实做好宗教团体、宗教活动场所、宗教教职人员“三个五好”建设工作，积极探索“坚持我国宗教中国化方向”有效途径，3月26日至29日，泰州市民宗局副局长、二级调研员何明带队赴九江（江西）、连云港开展专题考察学习活动。市民宗局相关处室和部分市级宗教团体、市（区）民宗局负责人参加。', '在江西省九江市，考察组一行先后深入濂溪区福音堂、东林寺和庐山市东林净土苑、万杉寺、栖贤寺、仙人洞道院、福音堂等宗教活动场所实地观摩了“五好”建设现场和成效，在与九江市委统战部进行座谈交流时，详细了解了“五好”宗教活动场所建设的组织领导、氛围营造、推进落实、考核评选等方面好的做法。', '在连云港市，考察组一行先后深入连云港法起寺、延福观和赣榆区基督教中心堂实地考察了宗教中国化实践馆、指导站、示范点等成果展示平台建设情况，围绕宗教中国化实践场馆设计、内容谋划、平台使用等，认真听取了民宗部门、宗教团体、宗教活动场所的情况介绍。', '通过考察学习，我市宗教领域“三个五好”建设和宗教中国化工作视野更加开阔，目标更加明确，思路更加清晰。下一步，将借鉴经验做法，结合工作实际，年内建成一批“五好”宗教活动场所和宗教中国化示范宗教活动场所，以“三个五好”建设为抓手切实推动宗教团体、宗教活动场所、宗教教职人员“三项规范”落细落实，以宗教中国化示范场所为引领不断推动宗教中国化“泰州实践”走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>80</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>鄂尔多斯市公共资源交易中心来我中心考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-04-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://zwfw.taizhou.gov.cn/xwzx/zwyw/art/2024/art_3a5690be82dc4ff48858a8fb76221ed7.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['3月29日，鄂尔多斯市公共资源交易中心党组成员、副主任李亮亮等一行6人来我中心考察学习。市公共资源交易中心领导班子及相关科室负责人陪同交流。', '李亮亮一行首先参观了中心场所建设，随后双方就场地管理、智能辅助评标、数字见证、专家管理、远程异地评标、电子档案、优化营商环境创新举措等工作进行了深入的交流和研讨并签订跨区域远程异地评标合作协议。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>80</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>市委书记陈锋剑带队考察学习历史文化名城保护工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.xinghua.gov.cn/xwzx/jrxh/art/2024/art_f95f5634bd154bf9813bab3bfb99c48b.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['3月22日至23日，市委书记陈锋剑带队赴无锡、莆田等地，考察学习历史文化名城保护工作。市领导陈林峰、许兵、陈林参加相关活动。', '22日上午，陈锋剑一行来到锡山区荡口古镇，走进钱伟长故居、华氏义庄、王莘故居等地，详细了解历史风貌街区运营、历史建筑保护利用等方面的经验做法。锡山区委书记方力，区委常委、组织部部长张琳参加。', '荡口古镇是无锡市五个重点保护的历史文化街区（名镇）之一，“中国历史文化名镇”“国家AAAA级旅游景区”，曾经走出了中国近代科学先行者华蘅芳、《歌唱祖国》词曲作者王莘、力学之父钱伟长等众多杰出人才。自2021年起开始转型发展，重点提升会通馆、荡口庭院电影博物馆、王莘故居、钱伟长旧居、钱穆故居等文化展馆，全力打造江南人文光影艺术特色小镇，生动展示古镇文化内涵。', '陈锋剑表示，荡口古镇保护与发展的成功经验值得学习。要以农文旅融合发展为方向，以“微改造”推动集镇特别是沙沟古镇的布局疏解、功能增补，提升基础设施建设和公共服务配套水平，扎实推进乡村文化振兴。', '22日晚上，陈锋剑一行来到莆田市荔城区兴化府历史文化街区，实地考察庙前路、坊巷、后街等特色古街，详细了解街区业态布局、运营模式、文物建筑保护、非遗传承发展等情况，并于23日上午再次现场考察。荔城区委书记杨兴斌，区委常委、宣传部部长林素银参加。', '兴化府历史文化街区是莆田古城风貌格局完好保存的历史空间载体，历经宋元明清多个朝代，基本保留了宋代以来的里弄街巷肌理格局，自明清时起便是城中最繁华的传统商业街区，是莆田历史文化名城的核心组成部分。街区内有各级文物建筑18处，历史建筑20处。2018年街区被列入福建省第三批历史文化街区， 2023 年入选中国旅游产业影响力案例、福建省非遗与旅游融合发展优秀案例、第二批省级旅游休闲街区、第三批省级特色步行街。', '23日，陈锋剑一行先后来到莆田市涵江区白塘镇洋尾村、萝苜田历史文化街区，深入古民居、祠堂、古牌坊等历史风貌建筑，对传统文化活态利用、历史风貌保护、商贾名居保护利用等情况进行考察。涵江区委副书记、区长郑群星，副区长陈敏参加。', '白塘镇洋尾村2003年被列为莆田市第一个省级历史文化名村，村内现有市级文物保护单位5处，区级文物保护单位1处，历史建筑5处，传统风貌建筑7处，历史环境要素7处，保留了端午赛龙舟、中秋赏月、元宵“廿六跑”等民俗活动，历史文化内涵深厚。', '萝苜田历史文化街区源起唐宋，兴于明清，民国盛极一时，是福建省省级历史文化街区。街区水系发达、街巷纵横，现存有不可移动文物18处、历史建筑35处、传统风貌建筑34处，拥有5项非物质文化遗产，是莆田海商贸易的重要遗存，也是莆田传统手工技艺、传统舞蹈、曲艺、民俗等传统文化的重要传承地，素有“小上海”的美誉。', '考察中，陈锋剑指出，兴化府历史文化街区以政府统筹为主，最大限度还原其历史风貌；萝苜田历史文化街区充分发挥公众参与力量，在政府引导下，以局部关键节点修缮带动整片街区活化。这两种不同的历史文化街区保护利用模式，为我们提供了借鉴和启发。兴化将学习借鉴莆田市的先进经验，在历史文化名城保护中，坚持把保护放在第一位，把改善民生作为优先事项，把活化利用作为传承着力点，因地制宜优化提升金东门、银北门、八字桥等街区业态，审慎推进历史文化建筑“微修复”“微改善”，尽可能留住原住民、留住古风貌、留住烟火气。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>80</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>盐城市人大来我区考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.tzhl.gov.cn/xwzx/hlyw/art/2024/art_4f8c18942bd249b58833f12ba4a21c38.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['3月21日上午，盐城市人大来到我区考察学习全过程人民民主实践基地建设情况，区人大常委会副主任张怀德陪同考察。', '海陵人大主题公园占地面积38亩，园内主要布展人民代表大会制度发展的光辉历程、习近平总书记关于坚持和完善人民代表大会制度重要思想、宪法及宪法宣誓制度、习近平总书记关于全过程人民民主重要论述、发展全过程人民民主的“海陵实践”以及代表风采、镇街人大之窗等七大板块。优美的景观环境，丰富的人大元素，生动的图文展示，有趣的法律知识互动让考察组频频点赞，认为我区结合党建阵地资源，建设人大工作平台的思路值得借鉴；围绕“践行全过程人民民主”“实现人民当家作主”展开深入探索研究，创新特色品牌的举措值得学习，考察组表示，将在今后工作中认真学习借鉴我区好经验好做法，并希望双方持续加强交流，共同推进基层人大工作再上新台阶。（全媒体记者：马春晴 周鑫）']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>80</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>市科技局赴杭州新昌考察学习科技创新工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.xinghua.gov.cn/xwzx/bmdt/art/2024/art_74a16ea2457b4ddc9074a9e64b6f7038.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['考察组先后走访了位于杭州的丽水科创飞地和慈溪创新创意飞地，现场参观在孵项目和入驻企业，详细了解飞地在空间布局、功能区分、配套服务等方面的情况。考察组成员还与飞地负责人就科创飞地建设背景、建设模式、运营模式、建设成效等方面进行了深入的交流。丽水科创飞地作为丽水市在外的第一块“科创飞地”，已初步形成视觉AI、新能源智慧出行产业链雏形，集聚互联网平台、新零售等产业，目前成功推动国药集团国药安心线上运营中心、爱玛科技等一批优质项目在县（市、区）落地制造业项目，并累计为17家丽水本土企业提供研发中心场地。', '考察组一行来到新昌县，新昌以“小县大科技”闻名全国，在资源不足、区位不足、动力不足的劣势下，通过持续实施“创新强县”战略不动摇、“铁了心抓创新”，强力构筑以企业为主体的科技创新体系，依靠科技创新，实现创新投入常态化、产业结构高新化、传统产业智能化、生态环境优质化，使科技创新的“新昌经验”声名鹊起。新昌县科技局党组书记陈益、副局长曹晶陪同考察组先后考察了轴承综合体、浙江工业大学新昌研究院和国检中心、新昌智能装备小镇客厅、新昌高端科创园（天姥归谷）', '下一步，市科技局将认真学习借鉴新昌科技工作的经验和做法，按照市委十三届五次全会提出的“兴企、强镇、惠民”的目标导向，积极探索科技创新兴化模式，更大力度集聚创新资源、引培创新人才、优化创新服务、加快创新转型，以创新寻求源动力、实现新突破，走出一条科技强、产业优、生态好的高质量发展之路。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>80</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>市领导带队赴剑川考察学习历史文化名城保护工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.xinghua.gov.cn/xwzx/jrxh/art/2024/art_95d27692acc84e36b8d3457534a86b1f.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['3月14日和15日，市委副书记、市长殷俊带队赴剑川县考察学习国家历史文化名城申报和历史文化保护传承工作。剑川县委副书记、县长张韬，县委常委、副县长李丹丹，副县长杨福堂，我市领导陈林峰、陈林参加活动。', '剑川位于云南省大理白族自治州，是云南文明之源，也是云南青铜文明的发源地之一，与中国悠久连续的文明史有着直接和重要关联。2023年，国务院批复同意剑川县列为国家历史文化名城，剑川县成为我国第141座国家历史文化名城。这里各类历史文化遗存十分丰富，历史文化价值突出，全域共有中国历史文化名镇1个（沙溪镇）、中国传统村落40个，以及各级文物保护单位71处（其中全国重点文物保护单位6处）、历史建筑152处。', '考察中，殷俊一行先后来到剑川古城历史文化街区、西门外街历史文化街区、国家方志馆南方丝绸之路分馆、茶马古道馆等地，详细了解剑川在保护历史文化遗产、打造历史文化名城、加强历史建筑活化利用、传承非物质文化遗产等方面的好经验、好做法。', '在实地考察剑川古城、沙溪古镇的基础上，双方进行了座谈，介绍、分享各自历史文化名城保护工作开展情况，并就申报工作进行了深入交流。殷俊表示，兴化国家历史文化名城申报工作正处于关键时期，剑川在历史文化保护传承方面的工作对兴化具有非常重要的借鉴意义。剑川以申报国家历史文化名城为契机，健全保护机制，保障资金配套，用科学手段完善保护措施，让各类历史文化资源保下来、活下去、用起来，做实了历史文化保护传承大文章，是兴化学习的榜样。希望借此机会，双方能建立常态化、长效化的学习交流机制，互鉴有益经验，共同学习、共同进步，着力推进历史文化保护传承工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>80</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>泰兴市民宗局赴张家港考察学习民族团结进步创建工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://zjswj.taizhou.gov.cn/xwzx/jcdt/art/2023/art_c2bd90f999854084b1258cbc6f350d99.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['近日，泰兴市委统战部副部长、市民宗局局长吴春年带队到张家港市考察交流民族团结进步创建工作。张家港市委统战部副部长、市民宗局局长金俊龙，市民宗局副局长王舒凤等陪同考察。', '考察组先后走访了张家港市民族团结进步协会、高新区胡同社区、江苏永钢集团和沙洲职业工学院，听取了张家港市民族团结进步协会会长格桑曲宗围绕发展沿革、组织架构、管理制度、示范创建、活动开展等方面具体介绍了协会在民族团结进步方面所做的工作。', '考察组对张家港市民族团结进步创建工作、各族群众互嵌式发展、民族事务治理体系等工作给予高度赞扬。吴春年表示，通过此次考察学习，看到了不足、寻找了差距、解决了疑惑、激发了动力，将积极借鉴张家港市民族工作的好经验、好做法，结合泰兴实际，采取有力措施推动新时代民族工作创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>80</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>曲水县民族团结模范代表团赴兴化考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://zjswj.taizhou.gov.cn/xwzx/jcdt/art/2023/art_42b6f1cc9368441281980c7f2a435bae.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['10月14日，由拉萨市曲水县20名各界民族团结模范组成的代表团赴兴化市千垛镇东罗村、沙沟镇、省华侨文化交流基地—郑板桥纪念馆等地考察学习。泰州市民宗局副局长吴杰、兴化市民宗局副局长刘凤杰等陪同参观。', '东罗村地处江苏中部兴化市千垛镇，与全国著名油菜花海——千垛菜花景区相连，是江苏省首批特色田园乡村之一。代表们在这里看见了书中碧水乡愁的现实样本，感受到生态宜居、乡风文明的朴素民风民情。东罗村坚定不移走绿色发展的乡村振兴之路，以产业为主带动乡村旅游，重点打造了民俗美食、农业观光、互动体验和康养度假等旅游项目。曲水县委统战部常务副部长、县民宗局局长索朗平措说，“特别感谢能有这次考察学习的机会，我要把好经验带回去、用起来。”', '郑板桥纪念馆是为纪念清代书画家、文学家郑板桥而建立。馆内讲解员向代表团一行介绍了以郑板桥为代表的“扬州八怪”和兴化籍历史名人的书画作品，讲解了板桥先生的生平故事，带领大家感受勤政、爱民、廉洁、担当的郑板桥精神，充分展示出兴化数千年的历史文化遗存和历史名人的艺术、思想精髓。', '追寻红色足迹，代表团一行来到沙沟古镇，通过看图片、听讲解的方式，从“抗日发动，巩固政权”、“红色丰碑，英烈千古”、“红色市府，抗日堡垒”等方面了解沙沟人民英勇战斗、谋求解放的丰功伟绩。讲解员通过一张张图片、一件件真实物件，把一段波澜壮阔的历史直观地展现在代表们眼前，重温当年发生在沙沟的那些惊心动魄、扣人心弦的革命历史和峥嵘往事。', '此次来访的民族团结模范代表团的成员，有机关干部、教师、个体经营者和村民等，他们来自于基层各行业，在各自工作和生活中为促进民族团结作出过贡献。参观学习结束后，代表们纷纷表示，一路走来，收获满满，回去之后要将参观学习经验心得化作做好工作、推进民族团结进步事业的实际行动，让民族团结之花更加绚丽绽放。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>80</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>刘剑波带队赴成都考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.tzhl.gov.cn/xwzx/hlyw/art/2023/art_54e7d0e3d73648ea9d1bd97c30bfd7dc.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['11月12日至14日，区委副书记、区长刘剑波带领区相关部门负责人，专程赴成都考察，走访企业、参加展览，宣传推介海陵，洽谈对接项目，共谋合作发展。', '11月13日，刘剑波一行参观考察了通威太阳能眉山和乐山基地。在通威太阳能智能制造展厅，刘剑波详细听取通威太阳能发展历程、生产规模等基本情况介绍，并参观了智能制造生产车间，查看车间自动化、无人化生产流程，了解太阳能晶硅电池的生产工艺流程及设备设施。刘剑波对通威太阳能的发展速度、智能制造水平、精益管理理念以及绿色可持续发展路径给予高度赞扬，他希望通威太阳能负责人能够到海陵考察调研，投资兴业。', '11月14日上午，2023第六届中国国际光伏产业大会在成都举行，刘剑波参加大会启动仪式，并参观了展馆。刘剑波说，中国国际光伏产业大会是国内光伏行业领域规模最大的展会之一，汇聚了行业大咖和龙头企业，是了解光伏行业前沿技术、发展趋势的重要平台。他希望区相关部门要结合海陵产业需求，组织人员加强与参展企业联系对接，宣传推介海陵，力争招商引资工作取得更大突破。', '刘剑波希望驻成都招商局全体人员要好好学，加强行业基础知识和技术的学习，提高招商引资信息研判的水平；要好好干，合理安排好工作和家庭，拓宽自己的朋友圈，集中精力投入到招商引资工作中，争取早日取得新业绩，为海陵经济社会发展作出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>80</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>曲水县民族团结模范代表团来泰州考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-10-10</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://zjswj.taizhou.gov.cn/xwzx/ywdt/art/2023/art_f02fc3bab12e43d5957c6165df50fdd2.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['10月9日，西藏自治区曲水县民族团结模范代表团20名成员抵达泰州，开启为期8天的考察学习。', '此次考察学习计划到10月18日结束。期间，民族团结模范代表团将赴靖江、泰兴、姜堰等三市三区的30余个学习考察点，实地走访各个市（区）的国家级（省级）民族团结示范单位、红石榴家园、红色教育基地、爱国主义教育基地等，深入了解泰州经济社会发展状况和民族团结进步事业情况。同时，还将通过座谈交流等活动，进一步加强泰曲两地的交流合作，打造各民族广泛交往交流交融的友谊之桥。', '民族团结模范代表团主要由自治区、拉萨市、曲水县民族团结模范集体代表和先进个人组成，成员大多来自基层一线。大家表示，考察交流活动是泰曲两地交流民族工作的一个重要平台，希望通过互相学习，发挥各自优势，持续促进泰曲两地民族团结进步事业繁荣发展，不断铸牢中华民族共同体意识。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>80</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>宿迁市农业农村局来我市考察学习水稻绿色高质高效示范创建和稻米产业发展情况</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://nyncj.taizhou.gov.cn/ywdt/bmdt/art/2023/art_f37070ff12034980995a5dcbbc9644eb.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['9月14—15日，宿迁市农业农村局种植业条线及相关县区农业农村局领导等一行来我市考察学习水稻绿色高质高效示范创建和稻米产业发展情况。市农业农村局三级调研员吴存发陪同考察。', '考察团一行先是实地调研兴化市现代农业产业示范园，现场观摩了水稻绿色高质高效示范基地和稻田综合种养示范基地，详细了解了我市水稻绿色高质高效示范项目创建和稻田综合种养模式及种养技术等情况。', '水稻绿色高质高效调研结束后，考察团又赴戴窑粮食交易市场，参观了江苏光明天成米业有限公司稻米生产加工车间和粮食物流园。同时，双方进行深入交流，希望能够进一步探索建立合作机制，加强沟通，积极促进多层次、多领域合作，共同推动水稻新品种、新技术示范推广，促进稻米产业链持续健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>80</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>新疆昭苏县人大来我区考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.tzhl.gov.cn/xwzx/hlyw/art/2023/art_011b7802fe8347019b0564cd72378a8e.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['9月14日，昭苏县人大常委会主任努素甫·阿依特江一行来到我区，考察学习发展全过程人民民主工作。区人大常委会主任、党组书记丁和扣陪同考察。', '在海陵人大主题公园，考察组一行通过看展板、听讲解，详细了解我区全过程人民民主实践工作，并对我区发展和完善全过程人民民主的实践表示赞赏，认为我区有阵地、有平台、有亮点，在把握内涵、找准抓手、创新形式等方面的经验做法值得借鉴与学习，希望两地加强学习与交流，进一步推进发展和完善全过程人民民主工作机制建设，为助推地方经济社会高质量发展贡献人大智慧和力量。', '城东街道“你点我督”代表工作室突出“四微”理念，健全“出题——点题——解题——督题——评题”链式闭环运行机制，致力打造出一个民呼我应的“民情收集站、人大监督110”，建成发现问题的前哨，解决问题的诊所。考察组认为我区结合党建阵地资源，建设人大工作平台的思路值得借鉴；围绕“践行全过程人民民主”“实现人民当家作主”展开深入探索研究，创新特色品牌的举措值得学习。表示将在今后工作中认真学习借鉴我区好经验好做法，并希望双方持续加强交流互鉴，共同推进基层人大工作再上新台阶。', '昭苏县人大常委会副主任乔伦巴图参加考察 ，区人大常委会副主任周晓晔陪同考察。（全媒体记者：沙莎）']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>80</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>兴化市司法局赴常熟考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://sfj.taizhou.gov.cn/xwzx/gzdt/art/2023/art_a01e3a81476341ca897f26889ec2dcd1.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['为学习借鉴先进市县司法行政工作典型经验做法，进一步推进司法行政各项工作，市司法局党组书记、局长唐彪带队到常熟司法局考察学习涉企行政合规指导及队伍建设等方面的先进经验和做法。', '考察组一行参观了常熟市综合执法普法教育基地、秦川街道社会矛盾纠纷调处化解中心、常熟市公共法律服务中心，重点学习了乡镇综合执法的机构设置、人员配备、执法流程等内容。学习考察期间在常熟市司法局召开座谈交流会，考察组一行与常熟市司法局分管副局长、相关科室负责人围绕企业行政合规指导、规范性文件合法性审查、队伍建设等方面工作进行了深入的交流探讨。此次考察学习虽时间短，但考察组一行收获满满。考察组成员纷纷表示将认真学习借鉴先进经验和做法，进一步解放思想、创新工作方法，提升工作效率和科学管理水平，推动司法行政工作高质量发展。', '学习考察期间在常熟市司法局召开座谈交流会，考察组一行与常熟市司法局分管副局长、相关科室负责人围绕企业行政合规指导、规范性文件合法性审查、队伍建设等方面工作进行了深入的交流探讨。', '此次考察学习虽时间短，但考察组一行收获满满。考察组成员纷纷表示将认真学习借鉴先进经验和做法，进一步解放思想、创新工作方法，提升工作效率和科学管理水平，推动司法行政工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>80</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>海陵区党政代表团赴秦淮区考察学习城市更新工作</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.tzhl.gov.cn/xwzx/hlyw/art/2023/art_289b077813f14e22a0eea295eaa1bbc1.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['8月10日，区委书记孙群带领海陵区党政代表团赴秦淮区，考察学习城市更新工作。他强调，要认真学习借鉴秦淮区的创新做法，在推动老城保护更新、解决民生关切问题等方面，积极探索符合海陵实际的新办法、新路径，努力打造宜居、韧性、智慧城市。', '秦淮区委书记王生，区政协主席何素玉等秦淮区领导陪同考察。海陵区领导刘冬、汤荣祥、孙乾等参加活动。', '小西湖片区地处南京老城南门东地区，是《南京历史文化名城保护规划》确定的28个历史风貌区之一。片区留存历史街巷7条、文保单位2处、历史建筑7处、传统院落30余处，是南京为数不多比较完整保留明清风貌特征的居住型街区之一。考察中，孙群一行详细了解该项目在保护历史文化遗产、提升城市品位、改善社会治理方式、满足市民多元需求等方面的好经验、好做法。', '孙群指出，要充分借鉴小西湖片区“共商、共建、共享、共赢”的理念，坚持以民为本，探索实施社区规划师制度，激发群众参与保护更新的热情；要以“小规模、渐进式”推动有机更新，破解“千篇一律”“千城一面”的城建难题，在盘活老城区存量、激活更多发展增量上下功夫、求创新，致力打造有温度、有情怀的文化古城。', '门东因地处古都金陵以南、中华门以东而得名，作为南京历史文化之根，是最能代表南京历史文化的地区之一。开放至今，引进商户150余家，年接待游客量超千万人次，是展示城市历史和现代文明的开放式博物馆。“青砖黛瓦马头墙、回廊挂落花格窗”，江南风貌的古民居院落群，金陵特有的“山水城林”城市特色，传统文化与新型消费的跨界融合，给党政代表团一行留下深刻印象。', '孙群指出，门东历史文化街区保护与复兴对海陵具有很强的指导和借鉴作用。要立足文化古城定位，不断挖掘“凤城河”文化核底蕴，处理好文物保护与文化保护、文化事业与文化产业的关系，让文化“看得见、听得到、摸得着”。同时，要引导居民、经营主体一体参与街区改造，让老街不“老”、古巷出“新”。', '在随后的座谈交流会上，孙群一行认真听取了秦淮区对小西湖片区和门东历史文化街区保护更新工作的相关经验和具体举措，详细了解两大街区在保护更新过程中存在的问题和解决路径。', '孙群表示，海陵将按照“把让人民宜居安居放在首位，把最好的资源留给人民”的理念，强化城市设计和老城保护意识，持续改善人居环境，最大程度保留住老城浓浓的生活气息，持续擦亮幸福海陵底色，努力打造集萃人文、承载记忆、寄托乡愁的文化古城。（全媒体记者：沙莎）']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>80</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市供销合作社赴南京市溧水区开展主题党日暨农业社会化服务考察学习活动</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://tzgxzs.taizhou.gov.cn/dtxw/swyw/art/2023/art_3402b0159e4145a0b9640806a64a608e.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['为进一步激励党员干部坚定理想信念，传承红色基因，增强党员的使命感和责任感，7月19日，市供销合作社赴南京市溧水区开展主题党日暨农业社会化服务考察学习活动，全体党员干部参加活动。', '上午，市社党员干部首先参观了中国供销社博物馆，追忆供销合作事业的光辉历程。博物馆展厅由序厅、合作溯源、发展印记、改革前行、砥砺前行、再铸辉煌和社员食堂组成，紧扣“为农服务、繁荣城乡”主题，用大量的现代科技手段及互动式体验，全面展现了供销社的发展印记与成就。一张张珍贵的老照片、一件件沧桑的老物件，一幕幕真实的老场景让大家仿佛回到那光辉峥嵘的岁月中，深刻感受到老一辈供销人的坚定信念和坚强意志。', '下午，市社党员干部赴“红色李巷”寻访红色基因，开展党性教育培训。全体人员先后参观了陈毅、江渭清、钟国楚、梅章、李坚真、李孝廉等6位新四军领导人旧居以及地下交通总站、李巷抗日战争收藏馆等红色旧址，瞻仰了革命先烈战斗时的图片以及流传至今的遗物，重温了那段波澜壮阔的革命历程，真切感受到在当时艰苦卓绝的战争环境下，革命先烈精忠报国、为国捐躯的爱国主义精神。', '此外，泰州市社一行还考察了溧水区毛公铺农资集采集配中心，实地参观了农药零差价农资销售点、生产资料展示展销中心、农药废弃物回收库、废旧地膜回收库和农机库等为农便民设施，认真听取了溧水区供销社相关改革发展情况介绍。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>80</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>海陵赴张家港市考察学习全国文明城市创建工作</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.tzhl.gov.cn/xwzx/hlyw/art/2023/art_352f851e1f8743d7817b4b335b478ee7.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['4月26日，区委常委、宣传部部长方晓玫带领相关镇街、部门负责人赴张家港市考察学习全国文明城市创建工作。', '考察团一行实地考察了张家港市新时代文明实践中心、农贸市场、开放式居民小区、口袋公园等地，学习张家港市在创建氛围营造、城市基础设施建设及常态长效管理、社区公共服务中心建设及志愿服务开展等方面的经验做法。', '经过改造后的万红新区集贸市场，内外道路宽敞、灯光明亮、整洁有序，以智慧公示屏实时播报市场讯息、菜品检测合格率、货物来源等情况，为百姓营造良好的购物环境。考察团一行详细了解该市场的改造经验、管理模式等情况，并表示以此为参考，进一步改善海陵集贸市场环境，提升群众购物体验。', '万红二村是开放式小区，近年来，张家港市依托老旧小区改造，在全面提升硬件基础设施的同时，以文明城市创建为抓手，推进小区常态长效管理。考察团一行从海陵同类型小区面临的管理难题出发，详细询问了小区的管理经验、创新举措，对标对表，探讨开放式小区治理新路径。', '开门有景、推窗见绿，城市的方寸之美藏在了家门口的“口袋公园”里。张家港市梁丰路边的“口袋公园”早已成为周边居民休闲打卡的好去处。洁净的休闲步道、贴心的便民设施为附近百姓提供了多样的选择。“口袋公园”的建设理念和周边小区的历史文化相结合，考察团对张家港市因地制宜重塑城市空间留下深刻印象。', '在张家港市新时代文明实践中心，考察团详细了解中心的建设及志愿服务活动开展和谋划推进等情况。考察团表示，将结合海陵实际，更好地利用新时代文明实践中心的平台功能，开展志愿服务活动，让文明新风飞入寻常百姓家。', '考察团一行还来到张家港市社会心理服务指导中心、社会治理现代化指挥中心等地，考察文明城市创建工作。', '考察团成员一致表示，将认真消化吸收考察所学，结合海陵实际，做好转化创新工作，聚焦问题补短板，强化担当抓落实，推动创建工作提质增效、常态长效。（全媒体记者：刘茜）']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>80</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>区领导赴南通市崇川区考察学习城市建设管理工作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.jiangyan.gov.cn/jyyw/art/2022/art_1e919a3df684407c96960de2d91478d5.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['1月21日下午，区委副书记、区长孙靓靓带队赴南通市崇川区考察学习城市建设管理工作，副区长滕智东参加考察。', '孙靓靓一行先后到南通市崇川区参观江岚停车场、青年路便民停车楼、富贵花园老旧小区改造项目、寺街和西南营历史文化街区改造项目、南通中医药文化博物馆等现场，详细了解智慧停车管理、老旧小区整治、历史文化街区保护等工作。', '崇川区是南通主城区，也是该市人口最密集、生产要素最集中、城市化水平最高的区域。崇川区智慧停车收费采用ETC+巡检车的方式。巡检车负责采集车辆的入场时间，每隔15分钟巡检一次，每辆巡检车可以巡检200到300个车位。同时巡检车接入交警平台，可以对违停车辆进行抓拍。ETC采用无感支付，车辆进出便捷。通过这种模式，崇川区的车辆停放有序，恶意拖欠停车费的现象也得到改善。', '与此同时，崇川区把城市更新作为一项民生工程常抓不懈，在南通率先启动破旧片区更新工作。在老小区改造上，从原先的“外墙出新、屋面防水”优化扩充为屋面防水、墙面出新、杆线入地、管网明晰、停车改善等全方位的系统改造，大大提升群众的获得感、满意度。', '在历史文化街区改造上，崇川区坚持“以保护为本，不搞大拆大建，不搞商业开发，全面保护历史文化街区历史遗产，继承和发扬优秀的历史文化传统”的指导思想，将“延续街区历史风貌、改善街区环境品质，完善基础设施、疏解居住人口、整饬不符合历史街区整体风貌的建筑”作为工作重点，从根本上有效保护街区的原有格局和历史风貌。', '考察中，孙靓靓表示，这次考察时间虽短，但收获很大。尤其是城市更新、城市管理以及老旧小区改造等诸多领域，崇川发展思路清晰，发展步伐坚定，既有点上突破、又有面上行动，成效十分显著。她诚挚希望以这次考察为契机，进一步拓展两地合作领域，加强学习交流，为姜堰更好地融入泰州“一轴三极三城”工作，加快推进城市更新三年行动计划，奋力谱写“康养名城”现代化建设新篇章注入强劲动力。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>80</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南通考察学习</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021-12-29</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.taixing.gov.cn/xwzx/txxw/art/2021/art_f1044a64f54c409eaaaf851efe17d93a.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['12月27日，市委书记张坤率我市党政代表团赴南通考察，学习借鉴兄弟城市在重大产业项目建设、重点园区载体发展、城市建设管理、生态环境保护利用等方面的先进经验做法。南通市委常委、组织部部长封春晴，崇川区委书记胡拥军，如东县委书记陈慧宇，如东县委副书记、代县长陈雷，南通创新区党工委委员、创新区管理办公室主任丁锋，我市人大常委会主任刘荣华，市政协主席徐闻仲等参加相关活动。', '近年来，如东县厚植沿海开发优势，深耕新能源产业，通过完善产业配套、探索产业组合，推动产业集聚集群发展。', '在如东县洋口港经济开发区阳光岛规划展示馆。我市党政代表团详细了解洋口港的地理区位、发展历程、整体规划、产业优势以及“十四五”规划等情况。', '近年来，洋口港抢抓“一带一路”建设、长三角一体化、江苏沿海开发等国家战略叠加机遇，聚焦项目建设，聚力能级提升，积极打造“产业港、能源岛”，以LNG接卸、储运为龙头的清洁能源产业发展方兴未艾。大家表示，如东“阳光岛”发展规划，从战略布局、资源利用到产业落地，以及各项配套形成的链条式发展，值得学习借鉴。', '在恒辉集团和江东科技。我市党政代表团走进产品展厅，听取企业负责人关于企业发展和产品情况的介绍。恒辉集团专注于手部安全防护用品，主要产品为具有防切割、高耐磨、抗穿刺、耐高低温、防化、防油污、防震等功能的安全防护手套。江东科技专业从事光纤研发、生产及销售，是中国移动、中国电信、中国联通光纤集中采购主流供应商。', '在如东高新区生命健康产业园。我市党政代表团通过视频了解园内生物医药企业、半导体企业在行业投入、产品研发、未来前景等方面的情况。生命健康产业园按照“孵化加速+引导基金+集成服务+特色园区”的运行模式，已招引落户创新药研发、体外诊断试剂、创新医疗器械、新型疫苗等众多前瞻性领域项目30多个，入驻率70%以上。目前产业园已成功引进高层次人才团队12个，聚集100多名博士，已有中美瑞康核酸技术、宏微特斯医药科技、九诺医疗等30多家高新技术企业入驻。', '创新是引领经济转型的核心动能，也是抢抓历史机遇、提升城市能级的根本之策。在南通创新区展示馆，我市党政代表团详细了解南通市创新区打造科技创新主引擎、营造城市功能强磁场、构建融入苏南对接上海引领区的规划、路径和举措。', '南通创新区自2016年底启动规划建设，坚持“建招并举”，城市中心初具形象，教育、医疗、文化、会展、商业等功能配套逐步建成。当前，南通创新区正围绕“城市新中心、科创引领区、人才向往地”目标定位，全面推进科技创新中心、金融商务中心、企业总部中心建设。大家认为，南通创新区大格局、大手笔的规划非常完整科学、具有美感、令人赞叹，做到了整体协调、单体精致。创新区一体规划的理念、招引人才的定位、政策扶持的力度等可圈可点，对南通“把最好的环境留给创新、留给人才”的建设理念由衷点赞，为泰兴开拓了思路、提供了借鉴。', '在南通博物苑，我市党政代表团走进张謇故居陈列室，了解张謇兴办实业、发展教育、投身社会公益事业等情况。一幅幅珍贵的历史照片，全景呈现了张謇兴办实业报国图强、推动教育变革启智育才、开展公益事业造福百姓的情怀和担当。大家表示，张謇先生的家国情怀和社会责任感值得学习研究，“张謇精神”值得大力传承弘扬。', '在南通市崇川区区域治理现代化指挥中心。我市党政代表团详细了解中心功能定位和运行模式。崇川区区域治理现代化指挥中心整合12345政府公共服务中心职责、数字城管职责和网格化服务管理职能，同时又新融入大数据中心工作职能，和16个街道社会治理现代化指挥中心、824个综合网格共同形成“1+16+824”三级联动指挥体系。崇川区“一个中心管全域、一个号码管受理、一个APP管应用、一支队伍管治理”的模式和做法，为大家打开了基层治理的全新思路。', '考察学习过程中，我市党政代表团一路看、一路学、一路思考、一路研究，大家表示，要认认真真学习好、借鉴好南通的发展理念、先进经验、干事作风，进一步解放思想、开拓进取，致力高质量、奋进现代化，为建设“强富美高”新泰兴而接续奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>80</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>靖江市供销合作社赴泰兴如皋两地考察学习农产品储藏加工及冷链物流项目先进经验</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-06-24</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://tzgxzs.taizhou.gov.cn/dtxw/sqdt/art/2021/art_2bf942aad4394b6da4ad34fb0147f58b.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为深入学习借鉴泰兴、如皋两地农产品储藏加工及冷链物流建设的先进经验，6月18日，靖江市供销合作社党组书记、理事会主任周劲明带领靖江市社领导班子成员、相关职能科室人员赴泰兴、如皋参观学习。', '在泰兴市七贤绿花菜专业合作社，合作社负责人吴伯元向大家介绍了蔬菜收购、加工、冷藏、销售方面的经验和做法；在如皋市中皋农产品供应链有限公司，如皋市社党组书记、理事会主任张益群介绍了公司的经营业态、运营模式、产品管理等具体情况。', '通过本次考察学习，大家纷纷表示，泰兴、如皋两地着力推进农产品加工储藏、冷链物流体系建设的先进做法十分值得学习，今年靖江市社将在生祠供销社实行农产品储藏加工及冷链物流项目，要把此次学习到的先进经验运用到实际项目建设中去，全力补齐冷链物流基础设施建设短板，推动农产品现代流通体系建设，提升为农服务功能。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>80</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>市城管局赴如皋市考察学习户外广告管理</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2020-12-25</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://cgj.taizhou.gov.cn/xwzx/gzdt/art/2020/art_74c4cd7ada3c4a5983dbe08515cb79b7.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['如皋市是住建部《关于开展规范城市户外广告设施管理工作试点》的九个城市之一，是全国唯一县级市试点。该市近年来在广告专项规划编制、详细规划修编、政府规章制定、行业标准规范起草、夜景照明亮化等方面取得了诸多显著成绩，得到住建部及省住建厅的充分肯定。', '12月23日下午，由市城管局党组成员、副局长夏隽莹带队，市容管理处、交产集团、文旅集团相关负责人组成考察小组，前往如皋市城管局考察学习。考察小组通过实地参观、座谈交流的形式，重点学习了该市在城市户外广告设施管理方面的试点成功经验，特别是广告设施规划、设计方案、整治提升、安全监管等方面的特色做法。', '下一步，市城管局将充分吸收借鉴该市的优秀做法，结合我市实际，在广告店招设计管理与历史文化相融合、彰显地域特色方面下功夫，用文化视角健全规划体系，打造精品点位和示范街区。同时，在户外广告安全管理、构建巡检监管系统等工作上学习如皋经验，不断提升我市户外广告管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>80</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>辽宁省营口市生态环境局一行来泰考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-10-27</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/0r6XTgmWVc0W228swncpnw</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['10月23日，辽宁省营口市生态环境局党组书记、局长周大臣带队来泰考察学习“健康长江泰州行动”和泰兴市经济开发区生态环境集成改革试点工作情况。泰州市生态环境局局长钱忠，副局长陈玉琴，泰兴生态环境局局长郑逸新，泰兴经济开发区党工委副书记、纪工委书记唐红兵，管委会副主任白学军陪同调研。', '在指挥中心现场，周大臣一行观看了“健康长江泰州行动”纪实片，听取了“健康长江泰州行动”指挥中心大数据平台的介绍。对我市长江管理从传统经验型向现代高科技型转变、从单一监管型向立体管控型转变、从被动应付型向主动保障型转变；综合运用卫星遥感、5G通信、AI智能监控、三维精准建模等高科技手段；整合沿江市（区）两级政府、以及相关18 个部门等各方资源实现对长江一体化管理；构建排口信息系统，建立排污口电子档案，实现“扫码”查询等创新工作高度赞赏。', '随后一行人来到泰兴经济开发区综合管理指挥中心，现场考察了园区生态环境政策集成改革试点工作情况，并与相关人员开展了座谈。周大臣局长表示，此次赴泰考察学习收获颇丰，可谓不虚此行，将及时向营口市委、市政府汇报学习成果，充分借鉴泰州市在保护长江母亲河、推动生态环境高质量发展上的先进工作经验，有针对性运用到营口入渤海河流水生态保护的具体工作中去，推动营口市生态文明建设再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>80</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>徐州市市场监管局来我市考察学习农贸市场明码标价工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2020-06-23</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://scjgj.taizhou.gov.cn/xwzx/sjdt/art/2020/art_6040881eff0f4cf0bb12090d8d86cf21.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['6月22日，徐州市市场监管局在党委委员梁启建带领下，一行9人来我市学习考察农贸市场明码标价工作。市市场监管局副局长于世生、副调研员魏文灿同志参加了交流活动。', '期间，市市场监管局从坚持标准引领，促日常管理规范；加强宣传引导，促责任意识增强；突出考核激励，促奖补落地见效；落实惠民措施，促消费体验提升；开发智慧平台，促日常管理增效等五方面进行交流。徐州市市场监管局同仁认为，我市农贸市场明码标价工作，有想法、有成效，走在全省前列，非常值得徐州市学习。', '会后，徐州市市场监管局实地考察了我市洧水、恒景、绿地等三家农贸市场明码标价工作，对我市农贸市场明码标价工作给予了充分肯定。', '2017年提档升级工程实施以来，我市市区共新建、改造农贸市场67家，改造覆盖率达90%。2019年4月份，作为长效管理考核牵头部门，我局从今年4月份正式启动考核工作，推动市场日常管理工作从“简单、粗放”向“规范、精细”转变。', '今年，我局重点组织开展消费体验提升行动，引导市区市场增加服务设施设备投入，规范食品、价格、计量等日常管理，进一步提升服务能力水平。一是明码标价情况。目前，43家二、三星级农贸市场明码标价工作已全部完成，并通过考核验收，蔬菜、水果、肉、禽、蛋等主要品种明码标价率达到100%，其他品种明码标价率达到90%的基础上。20家一星级农贸市场的明码标价工作正在加紧推进，标准稍微降低，要求蔬菜、水果、肉、禽、蛋等主要品种实施明码标价。我们的目标是6月底前城区所有农贸市场明码标价率达100%，乡镇农贸市场明码标价率超过90%。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>80</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>防违办接待徐州同行来泰考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2018-11-13</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://cgj.taizhou.gov.cn/xwzx/gzdt/art/2018/art_f6ba5af6f1e74c18b787a38ec9efeef7.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['11月13日上午，徐州市治违办及城管局一行来泰进行考察学习，局党委委员、执法支队支队长董同成代表市防违办陪同并主持了两地违建治理交流座谈会。', '会上，市防违办相关负责人向徐州同仁介绍了我市“违建治理五年行动”开展以来防违工作取得的显著成效。董同成支队长从市级立法、部门职责、属地管理、考核问责、历史遗留问题的处理等方面系统地对泰州的防违体制和经验做法进行了阐述，并着重推介了海陵区的属地管理模式、高港区“一户一卡”的做法和兴化市在考核倒逼下强力推进的工作作风。', '随后，双方就治违体制、相关考核、问责制度和联动处置等问题进行了深入探讨，剖析了问题，引起了共鸣。最后双方达成一致，希望今后加强泰州和徐州两地的互动，多多交流心得，取长补短，共同提高违建治理水平。']</t>
         </is>
